--- a/创客论坛/经费/经费表.xlsx
+++ b/创客论坛/经费/经费表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="采购" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -197,10 +193,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>赵娥、</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>张余益、王群、邹立峰、王佐、高英、刘怡、魏绍飞、彭进</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -221,81 +213,173 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>现场礼仪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴伊宁等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打气机</t>
+  </si>
+  <si>
+    <t>工作餐</t>
+  </si>
+  <si>
+    <t>氦气</t>
+  </si>
+  <si>
+    <t>打印费</t>
+  </si>
+  <si>
+    <t>快递费</t>
+  </si>
+  <si>
+    <t>嘉宾徽章</t>
+  </si>
+  <si>
+    <t>小徽章</t>
+  </si>
+  <si>
+    <t>装饰-气球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名展板</t>
+  </si>
+  <si>
+    <t>背景板</t>
+  </si>
+  <si>
+    <t>海报A1</t>
+  </si>
+  <si>
+    <t>海报A2</t>
+  </si>
+  <si>
+    <t>易拉宝</t>
+  </si>
+  <si>
+    <t>户外圆柱</t>
+  </si>
+  <si>
+    <t>室内圆柱</t>
+  </si>
+  <si>
+    <t>石头宝丽布</t>
+  </si>
+  <si>
+    <t>横幅</t>
+  </si>
+  <si>
+    <t>安装费</t>
+  </si>
+  <si>
+    <t>税金</t>
+  </si>
+  <si>
+    <t>印厂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵娥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张余益、刘怡、高党寻、马运、王龙兵、杜少轩、周冰科、殷泽辉、高敬涛、贾以博、杨宗昌、赵萌、季宇超</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>季宇超、贾以博、张新、赵萌、杨宗昌</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>张余益、刘怡、高党寻、马运、王龙兵、杜少轩、周冰科、殷泽辉、高敬涛、贾以博、杨宗昌、赵萌、季宇超</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场礼仪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴伊宁等</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>打气机</t>
-  </si>
-  <si>
-    <t>工作餐</t>
-  </si>
-  <si>
-    <t>氦气</t>
-  </si>
-  <si>
-    <t>打印费</t>
-  </si>
-  <si>
-    <t>快递费</t>
-  </si>
-  <si>
-    <t>嘉宾徽章</t>
-  </si>
-  <si>
-    <t>小徽章</t>
-  </si>
-  <si>
-    <t>装饰-气球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名展板</t>
-  </si>
-  <si>
-    <t>背景板</t>
-  </si>
-  <si>
-    <t>海报A1</t>
-  </si>
-  <si>
-    <t>海报A2</t>
-  </si>
-  <si>
-    <t>易拉宝</t>
-  </si>
-  <si>
-    <t>户外圆柱</t>
-  </si>
-  <si>
-    <t>室内圆柱</t>
-  </si>
-  <si>
-    <t>石头宝丽布</t>
-  </si>
-  <si>
-    <t>横幅</t>
-  </si>
-  <si>
-    <t>安装费</t>
-  </si>
-  <si>
-    <t>税金</t>
-  </si>
-  <si>
-    <t>印厂</t>
+    <t>媒体接待</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵娥、王豫明老师两位老师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影摄像</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高炬、姚启明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟淑苹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴殿红</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王豫明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创马启动背景板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡景至成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议材料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议用水</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议调度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创马启动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶歇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟淑苹</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +390,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +442,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF030303"/>
+      <name val="Inherit"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF030303"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -388,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
@@ -403,11 +500,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="货币" xfId="1" builtinId="4"/>
     <cellStyle name="货币 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,7 +535,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -710,624 +821,787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F45"/>
+  <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <f>E3*F3</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <f>E4*F4</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1">
+        <f>E5*F5</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>548.5</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6" si="0">E6*F6</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7" si="1">E7*F7</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <f>D3*E3</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8:G37" si="2">E8*F8</f>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1">
-        <f>D4*E4</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1">
-        <f>D5*E5</f>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>548.5</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6" si="0">D6*E6</f>
-        <v>548.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ref="F7" si="1">D7*E7</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" ref="F8:F45" si="2">D8*E8</f>
-        <v>595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="15"/>
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>45</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>78</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1">
-        <v>78</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>119</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="B14" s="15"/>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
+      <c r="F14" s="1">
+        <v>88</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12">
-        <v>200</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="B15" s="15"/>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>138</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>90</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1511</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1250</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>47</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <v>439</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1">
+        <v>90</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1">
+        <v>140</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>684</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>500</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>194</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="2"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
+      <c r="B32" s="15"/>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>119</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14">
+      <c r="F32" s="1">
+        <v>378</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <v>88</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+      <c r="F33" s="1">
+        <v>500</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>677</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="2"/>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35">
         <v>18</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>138</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1">
-        <v>90</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1511</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1250</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="2"/>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>47</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10.9</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23">
-        <v>439</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="2"/>
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="F35" s="1">
+        <v>190</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="2"/>
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25">
+      <c r="D36" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36">
         <v>2</v>
       </c>
-      <c r="E25" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1">
-        <v>90</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="2"/>
-        <v>990</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27">
+      <c r="F36" s="1">
+        <v>195</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>25</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="E27" s="1">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="2"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1">
-        <v>140</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="2"/>
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>684</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="2"/>
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>500</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>194</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="2"/>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" t="s">
         <v>71</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>378</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="2"/>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>500</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>677</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="2"/>
-        <v>677</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E35" s="1"/>
-      <c r="F35" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E36" s="1"/>
-      <c r="F36" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E37" s="1"/>
-      <c r="F37" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E38" s="1"/>
-      <c r="F38" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E39" s="1"/>
-      <c r="F39" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E40" s="1"/>
-      <c r="F40" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E41" s="1"/>
-      <c r="F41" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E42" s="1"/>
-      <c r="F42" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E43" s="1"/>
-      <c r="F43" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E44" s="1"/>
-      <c r="F44" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E45" s="1"/>
-      <c r="F45" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="G40" s="10">
+        <f>SUM(G3:G39)</f>
+        <v>33114</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B34"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1338,52 +1612,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="4">
         <v>41963</v>
@@ -1392,17 +1666,17 @@
         <v>4</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="G3" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4">
         <v>41963</v>
@@ -1411,15 +1685,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="4">
         <v>41963</v>
@@ -1428,15 +1702,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="4">
         <v>41972</v>
@@ -1445,15 +1719,15 @@
         <v>3</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D7" s="4">
         <v>41971</v>
@@ -1462,15 +1736,15 @@
         <v>13</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D8" s="4">
         <v>41971</v>
@@ -1479,15 +1753,15 @@
         <v>2</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4">
         <v>41971</v>
@@ -1496,15 +1770,15 @@
         <v>8</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4">
         <v>41972</v>
@@ -1513,15 +1787,15 @@
         <v>2</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D11" s="4">
         <v>41972</v>
@@ -1530,15 +1804,15 @@
         <v>5</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4">
         <v>41967</v>
@@ -1547,15 +1821,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4">
         <v>41972</v>
@@ -1564,15 +1838,15 @@
         <v>3</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4">
         <v>41972</v>
@@ -1581,160 +1855,174 @@
         <v>6</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/创客论坛/经费/经费表.xlsx
+++ b/创客论坛/经费/经费表.xlsx
@@ -8,379 +8,238 @@
   </bookViews>
   <sheets>
     <sheet name="采购" sheetId="1" r:id="rId1"/>
-    <sheet name="人员劳务" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>单价</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>供应商</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>翻转会议流程介绍页128克铜版纸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>清美佳印图文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>农夫山泉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>照澜院柳师傅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>红茶饮料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>水晶内雕礼品基料+礼盒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>水晶内雕礼品基料运费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>会务组餐饮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>会议手提袋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>会议手提袋喷绘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>微软人机工学键盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>蓝牙耳机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>移动电源12000mAh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>海报张贴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>人数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议资料印刷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金工图文社</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议用笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金工图文社</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣老师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打气机</t>
+  </si>
+  <si>
+    <t>工作餐</t>
+  </si>
+  <si>
+    <t>氦气</t>
+  </si>
+  <si>
+    <t>打印费</t>
+  </si>
+  <si>
+    <t>快递费</t>
+  </si>
+  <si>
+    <t>嘉宾徽章</t>
+  </si>
+  <si>
+    <t>小徽章</t>
+  </si>
+  <si>
+    <t>装饰-气球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名展板</t>
+  </si>
+  <si>
+    <t>背景板</t>
+  </si>
+  <si>
+    <t>海报A1</t>
+  </si>
+  <si>
+    <t>海报A2</t>
+  </si>
+  <si>
+    <t>易拉宝</t>
+  </si>
+  <si>
+    <t>户外圆柱</t>
+  </si>
+  <si>
+    <t>室内圆柱</t>
+  </si>
+  <si>
+    <t>石头宝丽布</t>
+  </si>
+  <si>
+    <t>横幅</t>
+  </si>
+  <si>
+    <t>安装费</t>
+  </si>
+  <si>
+    <t>税金</t>
+  </si>
+  <si>
+    <t>印厂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创马启动背景板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡景至成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>展板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视觉系统设计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>马泉、郭枳彤、李维乐、袁辅湘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻转会议设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>会务管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王德宇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>会务材料准备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议多媒体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>李新年、姜峰、薛源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高敬涛、赵娥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>会场布置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视觉系统布置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议资料印刷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金工图文社</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议用笔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金工图文社</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全天现场值班</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋述强</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议用水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议调度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创马启动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶歇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>荣老师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张余益、王群、邹立峰、王佐、高英、刘怡、魏绍飞、彭进</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品制作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王佐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员转场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣键、杨兴华、刘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场礼仪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴伊宁等</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>打气机</t>
-  </si>
-  <si>
-    <t>工作餐</t>
-  </si>
-  <si>
-    <t>氦气</t>
-  </si>
-  <si>
-    <t>打印费</t>
-  </si>
-  <si>
-    <t>快递费</t>
-  </si>
-  <si>
-    <t>嘉宾徽章</t>
-  </si>
-  <si>
-    <t>小徽章</t>
-  </si>
-  <si>
-    <t>装饰-气球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名展板</t>
-  </si>
-  <si>
-    <t>背景板</t>
-  </si>
-  <si>
-    <t>海报A1</t>
-  </si>
-  <si>
-    <t>海报A2</t>
-  </si>
-  <si>
-    <t>易拉宝</t>
-  </si>
-  <si>
-    <t>户外圆柱</t>
-  </si>
-  <si>
-    <t>室内圆柱</t>
-  </si>
-  <si>
-    <t>石头宝丽布</t>
-  </si>
-  <si>
-    <t>横幅</t>
-  </si>
-  <si>
-    <t>安装费</t>
-  </si>
-  <si>
-    <t>税金</t>
-  </si>
-  <si>
-    <t>印厂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵娥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张余益、刘怡、高党寻、马运、王龙兵、杜少轩、周冰科、殷泽辉、高敬涛、贾以博、杨宗昌、赵萌、季宇超</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>季宇超、贾以博、张新、赵萌、杨宗昌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>媒体接待</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵娥、王豫明老师两位老师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄影摄像</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高炬、姚启明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟淑苹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴殿红</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王豫明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>创马启动背景板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怡景至成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>展板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议材料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议用水</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议调度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视觉系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>创马启动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶歇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟淑苹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒体车马费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣老师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -390,20 +249,12 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,13 +276,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -475,40 +319,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -516,9 +345,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
     <cellStyle name="货币 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,7 +364,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -823,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -837,10 +666,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -862,8 +691,8 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>87</v>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -886,7 +715,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>13</v>
       </c>
@@ -908,7 +737,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -930,12 +759,12 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="6"/>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -952,12 +781,12 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -974,8 +803,8 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>88</v>
+      <c r="B8" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -998,7 +827,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -1020,8 +849,8 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>89</v>
+      <c r="B10" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1041,7 +870,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -1060,11 +889,11 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>200</v>
@@ -1081,8 +910,8 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>90</v>
+      <c r="B13" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1102,7 +931,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1121,7 +950,7 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="6"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1140,14 +969,14 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>91</v>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -1164,9 +993,9 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -1183,9 +1012,9 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="6"/>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>21</v>
@@ -1202,9 +1031,9 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="6"/>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1221,9 +1050,9 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1240,9 +1069,9 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="6"/>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1259,9 +1088,9 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1278,9 +1107,9 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="6"/>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>439</v>
@@ -1297,9 +1126,9 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="6"/>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1316,9 +1145,9 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="6"/>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1335,9 +1164,9 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="6"/>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>11</v>
@@ -1354,9 +1183,9 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="6"/>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>50</v>
@@ -1373,9 +1202,9 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="6"/>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>15</v>
@@ -1392,9 +1221,9 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="6"/>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1411,9 +1240,9 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="6"/>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1430,9 +1259,9 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="6"/>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1449,9 +1278,9 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="6"/>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1468,9 +1297,9 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="6"/>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1487,9 +1316,9 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="6"/>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1506,14 +1335,14 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>92</v>
+      <c r="B35" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>83</v>
+        <v>44</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E35">
         <v>18</v>
@@ -1530,12 +1359,12 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>83</v>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1552,12 +1381,12 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="6"/>
       <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>83</v>
+        <v>46</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1575,20 +1404,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>95</v>
+        <v>55</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="C40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="10">
+        <v>43</v>
+      </c>
+      <c r="G40" s="3">
         <f>SUM(G3:G39)</f>
         <v>33114</v>
       </c>
@@ -1602,430 +1445,8 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B34"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="4">
-        <v>41963</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="4">
-        <v>41963</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4">
-        <v>41963</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4">
-        <v>41972</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="4">
-        <v>41971</v>
-      </c>
-      <c r="E7" s="3">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="4">
-        <v>41971</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4">
-        <v>41971</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4">
-        <v>41972</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="4">
-        <v>41972</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="4">
-        <v>41967</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="4">
-        <v>41972</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4">
-        <v>41972</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>